--- a/Mars-QA Test Cases.xlsx
+++ b/Mars-QA Test Cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="140">
   <si>
     <t xml:space="preserve">TC - ID</t>
   </si>
@@ -106,7 +106,25 @@
     <t xml:space="preserve">Verify the user able to click the login function </t>
   </si>
   <si>
-    <t xml:space="preserve">Lanuch the Mars-QA application</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Launch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the Mars-QA application</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">The user has been successfully clicked the login function</t>
@@ -295,7 +313,7 @@
     <t xml:space="preserve">Verify that the user should be able to add an extended quantity of languages</t>
   </si>
   <si>
-    <t xml:space="preserve">Click the langauge data tab</t>
+    <t xml:space="preserve">Click the language data tab</t>
   </si>
   <si>
     <t xml:space="preserve">The user has not successfully added an extended quqntity of language.</t>
@@ -310,6 +328,9 @@
     <t xml:space="preserve">Verify the user able to click the remember me check box</t>
   </si>
   <si>
+    <t xml:space="preserve">Lanuch the Mars-QA application</t>
+  </si>
+  <si>
     <t xml:space="preserve">The user has been successfuly clicked the remember me function</t>
   </si>
   <si>
@@ -322,16 +343,13 @@
     <t xml:space="preserve">Verify that the user able to give char value in laguage text box</t>
   </si>
   <si>
-    <t xml:space="preserve">Click the language data tab</t>
-  </si>
-  <si>
     <t xml:space="preserve">The user has been successfully added the character in language field.</t>
   </si>
   <si>
     <t xml:space="preserve">Click te add new button</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the character to langauage text box</t>
+    <t xml:space="preserve">Enter the character to language text box</t>
   </si>
   <si>
     <t xml:space="preserve">Select the levels</t>
@@ -346,7 +364,7 @@
     <t xml:space="preserve">The user has been successfully added an integer in language field.</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the integer to langauage text box</t>
+    <t xml:space="preserve">Enter the integer to language text box</t>
   </si>
   <si>
     <t xml:space="preserve">TC -022</t>
@@ -387,6 +405,60 @@
   <si>
     <t xml:space="preserve">Enter the same mail id and different password</t>
   </si>
+  <si>
+    <t xml:space="preserve">TC_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is not able to add skill list with null value in skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on addnew button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The skill list has not added in the skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Leave the skill with null value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Choose the skill level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.Click the add button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The skill already in skill list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is not able to add same skill list in skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Enter the skill credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is not able to add skill list without choose skill level in skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Leave the skill level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that the user can able select same skill level for different skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User has been successfully added.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.select the same skill level</t>
+  </si>
 </sst>
 </file>
 
@@ -395,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -436,6 +508,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -452,6 +530,13 @@
       <color rgb="FF212529"/>
       <name val="Verdana"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -544,7 +629,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -581,11 +666,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -597,11 +690,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,20 +702,36 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -704,8 +813,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A120" activeCellId="0" sqref="A120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C127" activeCellId="0" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1648,7 +1757,7 @@
       <c r="B31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -1765,17 +1874,17 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+    <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="5"/>
@@ -1802,12 +1911,12 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="5"/>
@@ -1834,12 +1943,12 @@
       <c r="Z36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="12" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1864,10 +1973,10 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -1892,13 +2001,13 @@
       <c r="Z38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -1928,8 +2037,8 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
@@ -1958,9 +2067,9 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="4"/>
@@ -1988,10 +2097,10 @@
       <c r="Z41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -2016,16 +2125,16 @@
       <c r="Z42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="5"/>
@@ -2052,12 +2161,12 @@
       <c r="Z43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="16"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -2082,12 +2191,12 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2112,10 +2221,10 @@
       <c r="Z45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -2140,13 +2249,13 @@
       <c r="Z46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -2176,10 +2285,10 @@
       <c r="Z47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -2204,13 +2313,13 @@
       <c r="Z48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -2240,9 +2349,9 @@
       <c r="Z49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12" t="s">
+      <c r="A50" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="4"/>
@@ -2270,9 +2379,9 @@
       <c r="Z50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="4"/>
@@ -2300,9 +2409,9 @@
       <c r="Z51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D52" s="4"/>
@@ -2330,9 +2439,9 @@
       <c r="Z52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -2358,10 +2467,10 @@
       <c r="Z53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -2386,13 +2495,13 @@
       <c r="Z54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -2422,9 +2531,9 @@
       <c r="Z55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="12" t="s">
+      <c r="A56" s="17"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="4"/>
@@ -2452,9 +2561,9 @@
       <c r="Z56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="12" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="4"/>
@@ -2482,9 +2591,9 @@
       <c r="Z57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="12" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="4"/>
@@ -2512,9 +2621,9 @@
       <c r="Z58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="12" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D59" s="4"/>
@@ -2542,10 +2651,10 @@
       <c r="Z59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -2570,16 +2679,16 @@
       <c r="Z60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E61" s="5"/>
@@ -2606,12 +2715,12 @@
       <c r="Z61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15"/>
-      <c r="B62" s="17"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="12"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -2636,12 +2745,12 @@
       <c r="Z62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="12" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -2666,12 +2775,12 @@
       <c r="Z63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="12" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -2696,12 +2805,12 @@
       <c r="Z64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="15"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="12" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="12"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -2726,12 +2835,12 @@
       <c r="Z65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15"/>
-      <c r="B66" s="17"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -2756,10 +2865,10 @@
       <c r="Z66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -2784,13 +2893,13 @@
       <c r="Z67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -2820,9 +2929,9 @@
       <c r="Z68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="15"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="12" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D69" s="4"/>
@@ -2850,9 +2959,9 @@
       <c r="Z69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="12" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D70" s="4"/>
@@ -2880,9 +2989,9 @@
       <c r="Z70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="12" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D71" s="4"/>
@@ -2910,8 +3019,8 @@
       <c r="Z71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="4" t="s">
         <v>71</v>
       </c>
@@ -2940,10 +3049,10 @@
       <c r="Z72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -2968,13 +3077,13 @@
       <c r="Z73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -3038,7 +3147,7 @@
       <c r="B76" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -3259,7 +3368,7 @@
       <c r="C83" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E83" s="5"/>
@@ -3291,7 +3400,7 @@
       <c r="C84" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="19"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -3321,7 +3430,7 @@
       <c r="C85" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="19"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -3504,11 +3613,11 @@
       <c r="B91" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>28</v>
+      <c r="C91" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -3566,8 +3675,8 @@
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="9" t="s">
-        <v>97</v>
+      <c r="C93" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="5"/>
@@ -3596,7 +3705,7 @@
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D94" s="6"/>
@@ -3653,13 +3762,13 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>101</v>
@@ -3717,7 +3826,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="s">
@@ -3843,7 +3952,7 @@
         <v>106</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>107</v>
@@ -3901,7 +4010,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6" t="s">
@@ -4026,7 +4135,7 @@
       <c r="B108" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D108" s="6" t="s">
@@ -4058,7 +4167,7 @@
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D109" s="6"/>
@@ -4088,7 +4197,7 @@
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="6"/>
@@ -4118,7 +4227,7 @@
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D111" s="6"/>
@@ -4148,7 +4257,7 @@
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D112" s="6"/>
@@ -4601,11 +4710,19 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+    <row r="127" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>125</v>
+      </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -4629,11 +4746,13 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+    <row r="128" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="23"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D128" s="24"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
@@ -4657,11 +4776,13 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+    <row r="129" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D129" s="24"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
@@ -4685,11 +4806,13 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+    <row r="130" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D130" s="24"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -4713,11 +4836,13 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="24"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="23" t="s">
+        <v>129</v>
+      </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -4741,11 +4866,17 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+    <row r="132" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D132" s="23"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -4769,11 +4900,13 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
+    <row r="133" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="23"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D133" s="23"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
@@ -4797,11 +4930,13 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+    <row r="134" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D134" s="23"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
@@ -4825,11 +4960,13 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+    <row r="135" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D135" s="23"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
@@ -4853,11 +4990,11 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="24"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -4881,11 +5018,19 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
+    <row r="137" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>125</v>
+      </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
@@ -4909,11 +5054,13 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+    <row r="138" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D138" s="23"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
@@ -4937,11 +5084,13 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+    <row r="139" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="23"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D139" s="23"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
@@ -4965,11 +5114,13 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
+    <row r="140" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="23"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D140" s="23"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
@@ -4993,11 +5144,11 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="24"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
@@ -5021,11 +5172,17 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+    <row r="142" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D142" s="24"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
@@ -5049,11 +5206,15 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
+    <row r="143" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>138</v>
+      </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
@@ -5077,11 +5238,13 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+    <row r="144" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D144" s="24"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
@@ -5105,11 +5268,13 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+    <row r="145" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="24"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145" s="24"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
@@ -5133,11 +5298,11 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -29130,7 +29295,7 @@
       <c r="Z1002" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="74">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A8:A14"/>
@@ -29195,6 +29360,16 @@
     <mergeCell ref="A120:A125"/>
     <mergeCell ref="B120:B125"/>
     <mergeCell ref="D120:D125"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="D131:D135"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B142:B144"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
